--- a/home/downloads/temp/Employee Details.xlsx
+++ b/home/downloads/temp/Employee Details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DLP Project\CyberShield-DLP-Security\home\downloads\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41602E97-223B-40E9-B976-BD3C90C0137D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383E759A-0FE8-412A-B0C0-55C52EF8D4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
